--- a/Result/ARIMA/Service/GBR.xlsx
+++ b/Result/ARIMA/Service/GBR.xlsx
@@ -463,7 +463,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>68.38088725670931</v>
+        <v>0.1027396222441712</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>68.58294972267063</v>
+        <v>68.48362687895347</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>69.5351253403157</v>
+        <v>68.68568934491481</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>70.43081793442168</v>
+        <v>69.63786496255987</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>70.42546283125513</v>
+        <v>70.53355755666585</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>64.87304682921798</v>
+        <v>70.5282024534993</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>65.08108618280909</v>
+        <v>64.97578645146216</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>65.6335130198355</v>
+        <v>65.18382580505326</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>66.06632355622156</v>
+        <v>65.73625264207968</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>66.12771960805014</v>
+        <v>66.16906317846573</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>66.06690942193902</v>
+        <v>66.23045923029431</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>67.41247768214825</v>
+        <v>66.16964904418319</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>67.65845946018602</v>
+        <v>67.51521730439242</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>68.25630768986564</v>
+        <v>67.7611990824302</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>68.89064443092089</v>
+        <v>68.35904731210981</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>69.2727355864584</v>
+        <v>68.99338405316506</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>69.19494664534015</v>
+        <v>69.37547520870257</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>69.72553414880804</v>
+        <v>69.29768626758433</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>69.86086647585117</v>
+        <v>69.82827377105221</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>71.60777589395808</v>
+        <v>69.96360609809534</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>70.61447281501307</v>
+        <v>71.71051551620225</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>70.10779816101621</v>
+        <v>70.71721243725725</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>70.26650516598842</v>
+        <v>70.21053778326038</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>69.90851320716837</v>
+        <v>70.36924478823259</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>70.12885880856771</v>
+        <v>70.01125282941254</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>70.47444931097988</v>
+        <v>70.23159843081189</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>71.05211743505777</v>
+        <v>70.57718893322405</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -774,13 +774,13 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>71.05211743505777</v>
+        <v>71.15485705730194</v>
       </c>
       <c r="C2" t="n">
-        <v>68.58623742221641</v>
+        <v>68.69720290577405</v>
       </c>
       <c r="D2" t="n">
-        <v>73.51799744789912</v>
+        <v>73.61251120882983</v>
       </c>
     </row>
     <row r="3">
@@ -788,13 +788,13 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>71.05211743505777</v>
+        <v>71.25759667954611</v>
       </c>
       <c r="C3" t="n">
-        <v>67.56483647770872</v>
+        <v>67.78194884683283</v>
       </c>
       <c r="D3" t="n">
-        <v>74.53939839240681</v>
+        <v>74.73324451225939</v>
       </c>
     </row>
     <row r="4">
@@ -802,13 +802,13 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>71.05211743505777</v>
+        <v>71.36033630179028</v>
       </c>
       <c r="C4" t="n">
-        <v>66.78108796744132</v>
+        <v>67.10355444391141</v>
       </c>
       <c r="D4" t="n">
-        <v>75.32314690267421</v>
+        <v>75.61711815966916</v>
       </c>
     </row>
     <row r="5">
@@ -816,13 +816,13 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>71.05211743505777</v>
+        <v>71.46307592403446</v>
       </c>
       <c r="C5" t="n">
-        <v>66.12035740936646</v>
+        <v>66.54776762097869</v>
       </c>
       <c r="D5" t="n">
-        <v>75.98387746074907</v>
+        <v>76.37838422709022</v>
       </c>
     </row>
     <row r="6">
@@ -830,13 +830,13 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>71.05211743505777</v>
+        <v>71.56581554627863</v>
       </c>
       <c r="C6" t="n">
-        <v>65.53824210197619</v>
+        <v>66.07033379827772</v>
       </c>
       <c r="D6" t="n">
-        <v>76.56599276813934</v>
+        <v>77.06129729427954</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +885,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>68.38088725670931</v>
+        <v>0.1048243165158899</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -895,7 +895,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>68.58294972267063</v>
+        <v>68.48571157322522</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -905,7 +905,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>69.5351253403157</v>
+        <v>68.68777403918652</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -915,7 +915,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>70.43081793442168</v>
+        <v>69.63994965683159</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -925,7 +925,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>70.42546283125513</v>
+        <v>70.53564225093757</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -935,7 +935,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>64.87304682921798</v>
+        <v>70.53028714777102</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -945,7 +945,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>65.08108618280909</v>
+        <v>64.97787114573387</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -955,7 +955,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>65.6335130198355</v>
+        <v>65.18591049932498</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -965,7 +965,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>66.06632355622156</v>
+        <v>65.73833733635139</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -975,7 +975,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>66.12771960805014</v>
+        <v>66.17114787273745</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>66.06690942193902</v>
+        <v>66.23254392456603</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>67.41247768214825</v>
+        <v>66.1717337384549</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>67.65845946018602</v>
+        <v>67.51730199866414</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>68.25630768986564</v>
+        <v>67.76328377670191</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>68.89064443092089</v>
+        <v>68.36113200638152</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>69.2727355864584</v>
+        <v>68.99546874743677</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>69.19494664534015</v>
+        <v>69.37755990297428</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>69.72553414880804</v>
+        <v>69.29977096185604</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>69.86086647585117</v>
+        <v>69.83035846532393</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>71.60777589395808</v>
+        <v>69.96569079236706</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>70.61447281501307</v>
+        <v>71.71260021047397</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>70.10779816101621</v>
+        <v>70.71929713152896</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>70.26650516598842</v>
+        <v>70.21262247753209</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>69.90851320716837</v>
+        <v>70.37132948250431</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>70.12885880856771</v>
+        <v>70.01333752368426</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>70.47444931097988</v>
+        <v>70.2336831250836</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>71.05211743505777</v>
+        <v>70.57927362749577</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
         <v>2017</v>
       </c>
       <c r="B29" t="n">
-        <v>70.86130988683175</v>
+        <v>71.15694175157365</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
         <v>2018</v>
       </c>
       <c r="B30" t="n">
-        <v>70.85863556508062</v>
+        <v>70.96613420334764</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>70.85647344479607</v>
+        <v>70.96345988159651</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>2020</v>
       </c>
       <c r="B32" t="n">
-        <v>72.7220432100172</v>
+        <v>70.96129776131195</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
         <v>2021</v>
       </c>
       <c r="B33" t="n">
-        <v>71.6304410687019</v>
+        <v>72.82686752653309</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1246,13 +1246,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>71.6304410687019</v>
+        <v>71.73526538521779</v>
       </c>
       <c r="C2" t="n">
-        <v>69.24647933146733</v>
+        <v>69.36016346818306</v>
       </c>
       <c r="D2" t="n">
-        <v>74.01440280593647</v>
+        <v>74.11036730225251</v>
       </c>
     </row>
     <row r="3">
@@ -1260,13 +1260,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>71.6304410687019</v>
+        <v>71.84008970173367</v>
       </c>
       <c r="C3" t="n">
-        <v>68.25901004766727</v>
+        <v>68.48118835864484</v>
       </c>
       <c r="D3" t="n">
-        <v>75.00187208973652</v>
+        <v>75.19899104482251</v>
       </c>
     </row>
     <row r="4">
@@ -1274,13 +1274,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>71.6304410687019</v>
+        <v>71.94491401824956</v>
       </c>
       <c r="C4" t="n">
-        <v>67.50129821641515</v>
+        <v>67.8311168247912</v>
       </c>
       <c r="D4" t="n">
-        <v>75.75958392098865</v>
+        <v>76.05871121170793</v>
       </c>
     </row>
     <row r="5">
@@ -1288,13 +1288,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>71.6304410687019</v>
+        <v>72.04973833476545</v>
       </c>
       <c r="C5" t="n">
-        <v>66.86251759410766</v>
+        <v>67.29953450069601</v>
       </c>
       <c r="D5" t="n">
-        <v>76.39836454329614</v>
+        <v>76.79994216883489</v>
       </c>
     </row>
     <row r="6">
@@ -1302,13 +1302,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>71.6304410687019</v>
+        <v>72.15456265128134</v>
       </c>
       <c r="C6" t="n">
-        <v>66.29974056833771</v>
+        <v>66.84367331130164</v>
       </c>
       <c r="D6" t="n">
-        <v>76.96114156906609</v>
+        <v>77.46545199126103</v>
       </c>
     </row>
   </sheetData>
